--- a/REGULAR/MAYORS OFFICE/FERMA, MA. VICTORIA.xlsx
+++ b/REGULAR/MAYORS OFFICE/FERMA, MA. VICTORIA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="429">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1314,6 +1314,12 @@
   </si>
   <si>
     <t>UT(0-3-41)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/11,27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -2011,7 +2017,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K720" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K737" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2340,12 +2346,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K720"/>
+  <dimension ref="A2:K737"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1710" topLeftCell="A675" activePane="bottomLeft"/>
-      <selection activeCell="M5" sqref="M5"/>
-      <selection pane="bottomLeft" activeCell="F692" sqref="F692"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="3510" topLeftCell="A705" activePane="bottomLeft"/>
+      <selection activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="K721" sqref="K721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,7 +2510,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>52.134000000000071</v>
+        <v>51.884000000000071</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2514,7 +2520,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>58.25</v>
+        <v>60</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18343,13 +18349,15 @@
         <v>45170</v>
       </c>
       <c r="B717" s="20"/>
-      <c r="C717" s="13"/>
+      <c r="C717" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D717" s="39"/>
       <c r="E717" s="9"/>
       <c r="F717" s="20"/>
-      <c r="G717" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G717" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H717" s="39"/>
       <c r="I717" s="9"/>
@@ -18360,25 +18368,33 @@
       <c r="A718" s="40">
         <v>45200</v>
       </c>
-      <c r="B718" s="20"/>
-      <c r="C718" s="13"/>
+      <c r="B718" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C718" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D718" s="39"/>
       <c r="E718" s="9"/>
       <c r="F718" s="20"/>
-      <c r="G718" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H718" s="39"/>
+      <c r="G718" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H718" s="39">
+        <v>1</v>
+      </c>
       <c r="I718" s="9"/>
       <c r="J718" s="11"/>
-      <c r="K718" s="20"/>
+      <c r="K718" s="48">
+        <v>45219</v>
+      </c>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A719" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B719" s="20"/>
+      <c r="A719" s="40"/>
+      <c r="B719" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C719" s="13"/>
       <c r="D719" s="39"/>
       <c r="E719" s="9"/>
@@ -18387,28 +18403,346 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H719" s="39"/>
+      <c r="H719" s="39">
+        <v>1</v>
+      </c>
       <c r="I719" s="9"/>
       <c r="J719" s="11"/>
-      <c r="K719" s="20"/>
+      <c r="K719" s="48">
+        <v>45230</v>
+      </c>
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B720" s="20"/>
-      <c r="C720" s="13"/>
+      <c r="C720" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D720" s="39"/>
       <c r="E720" s="9"/>
       <c r="F720" s="20"/>
-      <c r="G720" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G720" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H720" s="39"/>
       <c r="I720" s="9"/>
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
+    </row>
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A721" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B721" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C721" s="13"/>
+      <c r="D721" s="39">
+        <v>4</v>
+      </c>
+      <c r="E721" s="9"/>
+      <c r="F721" s="20"/>
+      <c r="G721" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H721" s="39"/>
+      <c r="I721" s="9"/>
+      <c r="J721" s="11"/>
+      <c r="K721" s="20" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A722" s="47" t="s">
+        <v>427</v>
+      </c>
+      <c r="B722" s="20"/>
+      <c r="C722" s="13"/>
+      <c r="D722" s="39"/>
+      <c r="E722" s="9"/>
+      <c r="F722" s="20"/>
+      <c r="G722" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H722" s="39"/>
+      <c r="I722" s="9"/>
+      <c r="J722" s="11"/>
+      <c r="K722" s="20"/>
+    </row>
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A723" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B723" s="20"/>
+      <c r="C723" s="13"/>
+      <c r="D723" s="39"/>
+      <c r="E723" s="9"/>
+      <c r="F723" s="20"/>
+      <c r="G723" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H723" s="39"/>
+      <c r="I723" s="9"/>
+      <c r="J723" s="11"/>
+      <c r="K723" s="20"/>
+    </row>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A724" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B724" s="20"/>
+      <c r="C724" s="13"/>
+      <c r="D724" s="39"/>
+      <c r="E724" s="9"/>
+      <c r="F724" s="20"/>
+      <c r="G724" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H724" s="39"/>
+      <c r="I724" s="9"/>
+      <c r="J724" s="11"/>
+      <c r="K724" s="20"/>
+    </row>
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A725" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B725" s="20"/>
+      <c r="C725" s="13"/>
+      <c r="D725" s="39"/>
+      <c r="E725" s="9"/>
+      <c r="F725" s="20"/>
+      <c r="G725" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H725" s="39"/>
+      <c r="I725" s="9"/>
+      <c r="J725" s="11"/>
+      <c r="K725" s="20"/>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A726" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B726" s="20"/>
+      <c r="C726" s="13"/>
+      <c r="D726" s="39"/>
+      <c r="E726" s="9"/>
+      <c r="F726" s="20"/>
+      <c r="G726" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H726" s="39"/>
+      <c r="I726" s="9"/>
+      <c r="J726" s="11"/>
+      <c r="K726" s="20"/>
+    </row>
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A727" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B727" s="20"/>
+      <c r="C727" s="13"/>
+      <c r="D727" s="39"/>
+      <c r="E727" s="9"/>
+      <c r="F727" s="20"/>
+      <c r="G727" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H727" s="39"/>
+      <c r="I727" s="9"/>
+      <c r="J727" s="11"/>
+      <c r="K727" s="20"/>
+    </row>
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A728" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B728" s="20"/>
+      <c r="C728" s="13"/>
+      <c r="D728" s="39"/>
+      <c r="E728" s="9"/>
+      <c r="F728" s="20"/>
+      <c r="G728" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H728" s="39"/>
+      <c r="I728" s="9"/>
+      <c r="J728" s="11"/>
+      <c r="K728" s="20"/>
+    </row>
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A729" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B729" s="20"/>
+      <c r="C729" s="13"/>
+      <c r="D729" s="39"/>
+      <c r="E729" s="9"/>
+      <c r="F729" s="20"/>
+      <c r="G729" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H729" s="39"/>
+      <c r="I729" s="9"/>
+      <c r="J729" s="11"/>
+      <c r="K729" s="20"/>
+    </row>
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A730" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B730" s="20"/>
+      <c r="C730" s="13"/>
+      <c r="D730" s="39"/>
+      <c r="E730" s="9"/>
+      <c r="F730" s="20"/>
+      <c r="G730" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H730" s="39"/>
+      <c r="I730" s="9"/>
+      <c r="J730" s="11"/>
+      <c r="K730" s="20"/>
+    </row>
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A731" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B731" s="20"/>
+      <c r="C731" s="13"/>
+      <c r="D731" s="39"/>
+      <c r="E731" s="9"/>
+      <c r="F731" s="20"/>
+      <c r="G731" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H731" s="39"/>
+      <c r="I731" s="9"/>
+      <c r="J731" s="11"/>
+      <c r="K731" s="20"/>
+    </row>
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A732" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B732" s="20"/>
+      <c r="C732" s="13"/>
+      <c r="D732" s="39"/>
+      <c r="E732" s="9"/>
+      <c r="F732" s="20"/>
+      <c r="G732" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H732" s="39"/>
+      <c r="I732" s="9"/>
+      <c r="J732" s="11"/>
+      <c r="K732" s="20"/>
+    </row>
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A733" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B733" s="20"/>
+      <c r="C733" s="13"/>
+      <c r="D733" s="39"/>
+      <c r="E733" s="9"/>
+      <c r="F733" s="20"/>
+      <c r="G733" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H733" s="39"/>
+      <c r="I733" s="9"/>
+      <c r="J733" s="11"/>
+      <c r="K733" s="20"/>
+    </row>
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A734" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B734" s="20"/>
+      <c r="C734" s="13"/>
+      <c r="D734" s="39"/>
+      <c r="E734" s="9"/>
+      <c r="F734" s="20"/>
+      <c r="G734" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H734" s="39"/>
+      <c r="I734" s="9"/>
+      <c r="J734" s="11"/>
+      <c r="K734" s="20"/>
+    </row>
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A735" s="40">
+        <v>45658</v>
+      </c>
+      <c r="B735" s="20"/>
+      <c r="C735" s="13"/>
+      <c r="D735" s="39"/>
+      <c r="E735" s="9"/>
+      <c r="F735" s="20"/>
+      <c r="G735" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H735" s="39"/>
+      <c r="I735" s="9"/>
+      <c r="J735" s="11"/>
+      <c r="K735" s="20"/>
+    </row>
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A736" s="40">
+        <v>45689</v>
+      </c>
+      <c r="B736" s="20"/>
+      <c r="C736" s="13"/>
+      <c r="D736" s="39"/>
+      <c r="E736" s="9"/>
+      <c r="F736" s="20"/>
+      <c r="G736" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H736" s="39"/>
+      <c r="I736" s="9"/>
+      <c r="J736" s="11"/>
+      <c r="K736" s="20"/>
+    </row>
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A737" s="40">
+        <v>45717</v>
+      </c>
+      <c r="B737" s="20"/>
+      <c r="C737" s="13"/>
+      <c r="D737" s="39"/>
+      <c r="E737" s="9"/>
+      <c r="F737" s="20"/>
+      <c r="G737" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H737" s="39"/>
+      <c r="I737" s="9"/>
+      <c r="J737" s="11"/>
+      <c r="K737" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/MAYORS OFFICE/FERMA, MA. VICTORIA.xlsx
+++ b/REGULAR/MAYORS OFFICE/FERMA, MA. VICTORIA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="430">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1320,6 +1320,9 @@
   </si>
   <si>
     <t>12/11,27-29/2023</t>
+  </si>
+  <si>
+    <t>01/05,09/2024</t>
   </si>
 </sst>
 </file>
@@ -2351,7 +2354,7 @@
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="3510" topLeftCell="A705" activePane="bottomLeft"/>
       <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="K721" sqref="K721"/>
+      <selection pane="bottomLeft" activeCell="G724" sqref="G724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,7 +2513,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>51.884000000000071</v>
+        <v>53.134000000000071</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2520,7 +2523,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>60</v>
+        <v>59.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18439,15 +18442,17 @@
       <c r="B721" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C721" s="13"/>
+      <c r="C721" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D721" s="39">
         <v>4</v>
       </c>
       <c r="E721" s="9"/>
       <c r="F721" s="20"/>
-      <c r="G721" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G721" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H721" s="39"/>
       <c r="I721" s="9"/>
@@ -18478,7 +18483,9 @@
       <c r="A723" s="40">
         <v>45292</v>
       </c>
-      <c r="B723" s="20"/>
+      <c r="B723" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C723" s="13"/>
       <c r="D723" s="39"/>
       <c r="E723" s="9"/>
@@ -18487,10 +18494,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H723" s="39"/>
+      <c r="H723" s="39">
+        <v>2</v>
+      </c>
       <c r="I723" s="9"/>
       <c r="J723" s="11"/>
-      <c r="K723" s="20"/>
+      <c r="K723" s="20" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">

--- a/REGULAR/MAYORS OFFICE/FERMA, MA. VICTORIA.xlsx
+++ b/REGULAR/MAYORS OFFICE/FERMA, MA. VICTORIA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="430">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2020,7 +2020,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K737" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K738" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2349,12 +2349,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K737"/>
+  <dimension ref="A2:K738"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="3510" topLeftCell="A705" activePane="bottomLeft"/>
       <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="G724" sqref="G724"/>
+      <selection pane="bottomLeft" activeCell="K724" sqref="K724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2523,7 +2523,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>59.25</v>
+        <v>58.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18504,10 +18504,10 @@
       </c>
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A724" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B724" s="20"/>
+      <c r="A724" s="40"/>
+      <c r="B724" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C724" s="13"/>
       <c r="D724" s="39"/>
       <c r="E724" s="9"/>
@@ -18516,14 +18516,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H724" s="39"/>
+      <c r="H724" s="39">
+        <v>1</v>
+      </c>
       <c r="I724" s="9"/>
       <c r="J724" s="11"/>
-      <c r="K724" s="20"/>
+      <c r="K724" s="48">
+        <v>45310</v>
+      </c>
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -18541,7 +18545,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -18559,7 +18563,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -18577,7 +18581,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -18595,7 +18599,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -18613,7 +18617,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -18631,7 +18635,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -18649,7 +18653,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -18667,7 +18671,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -18685,7 +18689,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -18703,7 +18707,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -18721,7 +18725,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -18739,7 +18743,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -18754,6 +18758,24 @@
       <c r="I737" s="9"/>
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
+    </row>
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A738" s="40">
+        <v>45717</v>
+      </c>
+      <c r="B738" s="20"/>
+      <c r="C738" s="13"/>
+      <c r="D738" s="39"/>
+      <c r="E738" s="9"/>
+      <c r="F738" s="20"/>
+      <c r="G738" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H738" s="39"/>
+      <c r="I738" s="9"/>
+      <c r="J738" s="11"/>
+      <c r="K738" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/MAYORS OFFICE/FERMA, MA. VICTORIA.xlsx
+++ b/REGULAR/MAYORS OFFICE/FERMA, MA. VICTORIA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E4EC1-2021-4039-9BFB-CC63201DB45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="431">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1323,12 +1324,15 @@
   </si>
   <si>
     <t>01/05,09/2024</t>
+  </si>
+  <si>
+    <t>1/25-26/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2003,7 +2007,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2020,25 +2024,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K738" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K738" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2345,34 +2349,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K738"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A705" activePane="bottomLeft"/>
+      <pane ySplit="3516" topLeftCell="A717" activePane="bottomLeft"/>
       <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="K724" sqref="K724"/>
+      <selection pane="bottomLeft" activeCell="K726" sqref="K726"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2393,7 +2397,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2411,7 +2415,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2431,7 +2435,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2439,7 +2443,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2452,7 +2456,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2469,7 +2473,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2504,7 +2508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2513,7 +2517,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>53.134000000000071</v>
+        <v>54.384000000000071</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2523,12 +2527,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>58.25</v>
+        <v>57.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>87</v>
       </c>
@@ -2543,7 +2547,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>34366</v>
       </c>
@@ -2569,7 +2573,7 @@
         <v>34385</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="20" t="s">
         <v>49</v>
@@ -2591,7 +2595,7 @@
         <v>34386</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>34394</v>
       </c>
@@ -2611,7 +2615,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>34425</v>
       </c>
@@ -2637,7 +2641,7 @@
         <v>34430</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>34455</v>
       </c>
@@ -2657,7 +2661,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>34486</v>
       </c>
@@ -2677,7 +2681,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>34516</v>
       </c>
@@ -2697,7 +2701,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>34547</v>
       </c>
@@ -2723,7 +2727,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>34578</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>62</v>
@@ -2771,7 +2775,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>34608</v>
       </c>
@@ -2791,7 +2795,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>34639</v>
       </c>
@@ -2811,7 +2815,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>34669</v>
       </c>
@@ -2831,7 +2835,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>88</v>
       </c>
@@ -2853,7 +2857,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>34700</v>
       </c>
@@ -2873,7 +2877,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>34731</v>
       </c>
@@ -2893,7 +2897,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>34759</v>
       </c>
@@ -2913,7 +2917,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>34790</v>
       </c>
@@ -2933,7 +2937,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>34820</v>
       </c>
@@ -2957,7 +2961,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>34851</v>
       </c>
@@ -2977,7 +2981,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>34881</v>
       </c>
@@ -3003,7 +3007,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>47</v>
@@ -3022,7 +3026,7 @@
         <v>34899</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>34912</v>
       </c>
@@ -3048,7 +3052,7 @@
         <v>34934</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>34943</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>34947</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>34973</v>
       </c>
@@ -3100,7 +3104,7 @@
         <v>34995</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>35004</v>
       </c>
@@ -3120,7 +3124,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>35034</v>
       </c>
@@ -3146,7 +3150,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>89</v>
       </c>
@@ -3168,7 +3172,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>35065</v>
       </c>
@@ -3194,7 +3198,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>35096</v>
       </c>
@@ -3214,7 +3218,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>35125</v>
       </c>
@@ -3240,7 +3244,7 @@
         <v>35132</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>35156</v>
       </c>
@@ -3260,7 +3264,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>35186</v>
       </c>
@@ -3286,7 +3290,7 @@
         <v>35206</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <v>35217</v>
       </c>
@@ -3312,7 +3316,7 @@
         <v>35223</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <v>35247</v>
       </c>
@@ -3332,7 +3336,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>35278</v>
       </c>
@@ -3352,7 +3356,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <v>35309</v>
       </c>
@@ -3376,7 +3380,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>47</v>
@@ -3398,7 +3402,7 @@
         <v>35320</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>120</v>
@@ -3420,7 +3424,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <v>35339</v>
       </c>
@@ -3440,7 +3444,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <v>35370</v>
       </c>
@@ -3466,7 +3470,7 @@
         <v>35382</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <v>35400</v>
       </c>
@@ -3492,7 +3496,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>122</v>
@@ -3511,7 +3515,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>90</v>
       </c>
@@ -3533,7 +3537,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <v>35431</v>
       </c>
@@ -3559,7 +3563,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <v>35462</v>
       </c>
@@ -3585,7 +3589,7 @@
         <v>35480</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <v>35490</v>
       </c>
@@ -3605,7 +3609,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>35521</v>
       </c>
@@ -3629,7 +3633,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <v>35551</v>
       </c>
@@ -3655,7 +3659,7 @@
         <v>35577</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -3675,7 +3679,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>35582</v>
       </c>
@@ -3695,7 +3699,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>35612</v>
       </c>
@@ -3715,7 +3719,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <v>35643</v>
       </c>
@@ -3735,7 +3739,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <v>35674</v>
       </c>
@@ -3761,7 +3765,7 @@
         <v>35695</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <v>35704</v>
       </c>
@@ -3785,7 +3789,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <v>35735</v>
       </c>
@@ -3811,7 +3815,7 @@
         <v>35753</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <v>35765</v>
       </c>
@@ -3835,7 +3839,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>129</v>
@@ -3855,7 +3859,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="47" t="s">
         <v>91</v>
       </c>
@@ -3877,7 +3881,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <v>35796</v>
       </c>
@@ -3901,7 +3905,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>45</v>
@@ -3921,7 +3925,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>35827</v>
       </c>
@@ -3945,7 +3949,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <v>35855</v>
       </c>
@@ -3971,7 +3975,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>132</v>
@@ -3991,7 +3995,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>45</v>
@@ -4011,7 +4015,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <v>35886</v>
       </c>
@@ -4035,7 +4039,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <v>35916</v>
       </c>
@@ -4061,7 +4065,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>132</v>
@@ -4081,7 +4085,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <v>35947</v>
       </c>
@@ -4105,7 +4109,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <v>35977</v>
       </c>
@@ -4129,7 +4133,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <v>36008</v>
       </c>
@@ -4155,7 +4159,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <v>36039</v>
       </c>
@@ -4181,7 +4185,7 @@
         <v>36046</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>141</v>
@@ -4198,7 +4202,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <v>36069</v>
       </c>
@@ -4222,7 +4226,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <v>36100</v>
       </c>
@@ -4246,7 +4250,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <v>36130</v>
       </c>
@@ -4272,7 +4276,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="47" t="s">
         <v>92</v>
       </c>
@@ -4294,7 +4298,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>36161</v>
       </c>
@@ -4320,7 +4324,7 @@
         <v>36182</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>145</v>
@@ -4337,7 +4341,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>45</v>
@@ -4354,7 +4358,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <v>36192</v>
       </c>
@@ -4378,7 +4382,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>36220</v>
       </c>
@@ -4402,7 +4406,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <v>36251</v>
       </c>
@@ -4422,7 +4426,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>36281</v>
       </c>
@@ -4446,7 +4450,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <v>36312</v>
       </c>
@@ -4472,7 +4476,7 @@
         <v>36322</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>47</v>
@@ -4491,7 +4495,7 @@
         <v>36334</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <v>36342</v>
       </c>
@@ -4515,7 +4519,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <v>36373</v>
       </c>
@@ -4541,7 +4545,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>149</v>
@@ -4561,7 +4565,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <v>36404</v>
       </c>
@@ -4585,7 +4589,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>47</v>
@@ -4607,7 +4611,7 @@
         <v>36423</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>36434</v>
       </c>
@@ -4627,7 +4631,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <v>36465</v>
       </c>
@@ -4653,7 +4657,7 @@
         <v>36482</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <v>36495</v>
       </c>
@@ -4679,7 +4683,7 @@
         <v>36500</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>151</v>
@@ -4699,7 +4703,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>157</v>
@@ -4719,7 +4723,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23"/>
       <c r="B107" s="20" t="s">
         <v>45</v>
@@ -4739,7 +4743,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="47" t="s">
         <v>93</v>
       </c>
@@ -4761,7 +4765,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <v>36526</v>
       </c>
@@ -4785,7 +4789,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>45</v>
@@ -4805,7 +4809,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
         <v>36557</v>
       </c>
@@ -4829,7 +4833,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <v>36586</v>
       </c>
@@ -4855,7 +4859,7 @@
         <v>36591</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>46</v>
@@ -4877,7 +4881,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <v>36617</v>
       </c>
@@ -4901,7 +4905,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>47</v>
@@ -4923,7 +4927,7 @@
         <v>36627</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
         <v>36647</v>
       </c>
@@ -4949,7 +4953,7 @@
         <v>36654</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>45</v>
@@ -4969,7 +4973,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>155</v>
@@ -4986,7 +4990,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <v>36678</v>
       </c>
@@ -5012,7 +5016,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
         <v>36708</v>
       </c>
@@ -5032,7 +5036,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
         <v>36739</v>
       </c>
@@ -5052,7 +5056,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <v>36770</v>
       </c>
@@ -5072,7 +5076,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <v>36800</v>
       </c>
@@ -5098,7 +5102,7 @@
         <v>36823</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
         <v>36831</v>
       </c>
@@ -5124,7 +5128,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <v>36861</v>
       </c>
@@ -5150,7 +5154,7 @@
         <v>36861</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="47" t="s">
         <v>94</v>
       </c>
@@ -5172,7 +5176,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23">
         <v>36892</v>
       </c>
@@ -5198,7 +5202,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <v>36923</v>
       </c>
@@ -5218,7 +5222,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <v>36951</v>
       </c>
@@ -5244,7 +5248,7 @@
         <v>36964</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>45</v>
@@ -5264,7 +5268,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <v>36982</v>
       </c>
@@ -5284,7 +5288,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23">
         <v>37012</v>
       </c>
@@ -5304,7 +5308,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <v>37043</v>
       </c>
@@ -5330,7 +5334,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <v>37073</v>
       </c>
@@ -5350,7 +5354,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
         <v>37104</v>
       </c>
@@ -5370,7 +5374,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <v>37135</v>
       </c>
@@ -5390,7 +5394,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <v>37165</v>
       </c>
@@ -5410,7 +5414,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <v>37196</v>
       </c>
@@ -5436,7 +5440,7 @@
         <v>37200</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <v>37226</v>
       </c>
@@ -5456,7 +5460,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="47" t="s">
         <v>95</v>
       </c>
@@ -5478,7 +5482,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23">
         <v>37257</v>
       </c>
@@ -5504,7 +5508,7 @@
         <v>37264</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <v>37288</v>
       </c>
@@ -5530,7 +5534,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <v>37316</v>
       </c>
@@ -5550,7 +5554,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <v>37347</v>
       </c>
@@ -5576,7 +5580,7 @@
         <v>37375</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>45</v>
@@ -5596,7 +5600,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
         <v>37377</v>
       </c>
@@ -5622,7 +5626,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>45</v>
@@ -5642,7 +5646,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23">
         <v>37408</v>
       </c>
@@ -5662,7 +5666,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <v>37438</v>
       </c>
@@ -5688,7 +5692,7 @@
         <v>37439</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23">
         <v>37469</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>37474</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>47</v>
@@ -5736,7 +5740,7 @@
         <v>37487</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <v>37500</v>
       </c>
@@ -5762,7 +5766,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>47</v>
@@ -5784,7 +5788,7 @@
         <v>37529</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23">
         <v>37530</v>
       </c>
@@ -5810,7 +5814,7 @@
         <v>37553</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <v>37561</v>
       </c>
@@ -5836,7 +5840,7 @@
         <v>37580</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>45</v>
@@ -5856,7 +5860,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <v>37591</v>
       </c>
@@ -5882,7 +5886,7 @@
         <v>37595</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="47" t="s">
         <v>96</v>
       </c>
@@ -5904,7 +5908,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <v>37622</v>
       </c>
@@ -5928,7 +5932,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>47</v>
@@ -5950,7 +5954,7 @@
         <v>37642</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <v>37653</v>
       </c>
@@ -5970,7 +5974,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <v>37681</v>
       </c>
@@ -5996,7 +6000,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>45</v>
@@ -6016,7 +6020,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
         <v>37712</v>
       </c>
@@ -6036,7 +6040,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <v>37742</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>37750</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23">
         <v>37773</v>
       </c>
@@ -6082,7 +6086,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <v>37803</v>
       </c>
@@ -6108,7 +6112,7 @@
         <v>37804</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>114</v>
@@ -6130,7 +6134,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23">
         <v>37834</v>
       </c>
@@ -6150,7 +6154,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23">
         <v>37865</v>
       </c>
@@ -6176,7 +6180,7 @@
         <v>37889</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>179</v>
@@ -6196,7 +6200,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="48"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23">
         <v>37895</v>
       </c>
@@ -6220,7 +6224,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
         <v>37926</v>
       </c>
@@ -6246,7 +6250,7 @@
         <v>37930</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>181</v>
@@ -6263,7 +6267,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <v>37956</v>
       </c>
@@ -6287,7 +6291,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="47" t="s">
         <v>97</v>
       </c>
@@ -6309,7 +6313,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <v>37987</v>
       </c>
@@ -6335,7 +6339,7 @@
         <v>38012</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>183</v>
@@ -6352,7 +6356,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>45</v>
@@ -6369,7 +6373,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23">
         <v>38018</v>
       </c>
@@ -6393,7 +6397,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23">
         <v>38047</v>
       </c>
@@ -6419,7 +6423,7 @@
         <v>38056</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>49</v>
@@ -6438,7 +6442,7 @@
         <v>38079</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>186</v>
@@ -6455,7 +6459,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>45</v>
@@ -6475,7 +6479,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
         <v>38078</v>
       </c>
@@ -6499,7 +6503,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <v>38108</v>
       </c>
@@ -6525,7 +6529,7 @@
         <v>38110</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>49</v>
@@ -6547,7 +6551,7 @@
         <v>38139</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>189</v>
@@ -6567,7 +6571,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23">
         <v>38139</v>
       </c>
@@ -6591,7 +6595,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23">
         <v>38169</v>
       </c>
@@ -6617,7 +6621,7 @@
         <v>38174</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>46</v>
@@ -6639,7 +6643,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>191</v>
@@ -6659,7 +6663,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23">
         <v>38200</v>
       </c>
@@ -6685,7 +6689,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>47</v>
@@ -6707,7 +6711,7 @@
         <v>38226</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>192</v>
@@ -6727,7 +6731,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <v>38231</v>
       </c>
@@ -6753,7 +6757,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23">
         <v>38261</v>
       </c>
@@ -6779,7 +6783,7 @@
         <v>38289</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>193</v>
@@ -6799,7 +6803,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <v>38292</v>
       </c>
@@ -6823,7 +6827,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>45</v>
@@ -6843,7 +6847,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23">
         <v>38322</v>
       </c>
@@ -6869,7 +6873,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>195</v>
@@ -6889,7 +6893,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="47" t="s">
         <v>98</v>
       </c>
@@ -6911,7 +6915,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23">
         <v>38353</v>
       </c>
@@ -6937,7 +6941,7 @@
         <v>38379</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>47</v>
@@ -6956,7 +6960,7 @@
         <v>38385</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>45</v>
@@ -6973,7 +6977,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>209</v>
@@ -6990,7 +6994,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23">
         <v>38384</v>
       </c>
@@ -7014,7 +7018,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23">
         <v>38412</v>
       </c>
@@ -7040,7 +7044,7 @@
         <v>38432</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>202</v>
@@ -7060,7 +7064,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <v>38443</v>
       </c>
@@ -7086,7 +7090,7 @@
         <v>38447</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>53</v>
@@ -7108,7 +7112,7 @@
         <v>38457</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>203</v>
@@ -7128,7 +7132,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>45</v>
@@ -7148,7 +7152,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23">
         <v>38473</v>
       </c>
@@ -7174,7 +7178,7 @@
         <v>38485</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>204</v>
@@ -7194,7 +7198,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23">
         <v>38504</v>
       </c>
@@ -7220,7 +7224,7 @@
         <v>38513</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>205</v>
@@ -7240,7 +7244,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23">
         <v>38534</v>
       </c>
@@ -7266,7 +7270,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>47</v>
@@ -7288,7 +7292,7 @@
         <v>38559</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>206</v>
@@ -7308,7 +7312,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23">
         <v>38565</v>
       </c>
@@ -7334,7 +7338,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>207</v>
@@ -7354,7 +7358,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23">
         <v>38596</v>
       </c>
@@ -7380,7 +7384,7 @@
         <v>38623</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>213</v>
@@ -7400,7 +7404,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="48"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23">
         <v>38626</v>
       </c>
@@ -7426,7 +7430,7 @@
         <v>38644</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>214</v>
@@ -7446,7 +7450,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <v>38657</v>
       </c>
@@ -7466,7 +7470,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23">
         <v>38687</v>
       </c>
@@ -7492,7 +7496,7 @@
         <v>38709</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>45</v>
@@ -7512,7 +7516,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="47" t="s">
         <v>99</v>
       </c>
@@ -7534,7 +7538,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <v>38718</v>
       </c>
@@ -7558,7 +7562,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>45</v>
@@ -7578,7 +7582,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <v>38749</v>
       </c>
@@ -7604,7 +7608,7 @@
         <v>38765</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>53</v>
@@ -7626,7 +7630,7 @@
         <v>38779</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>216</v>
@@ -7646,7 +7650,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23">
         <v>38777</v>
       </c>
@@ -7672,7 +7676,7 @@
         <v>38786</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>217</v>
@@ -7692,7 +7696,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>45</v>
@@ -7712,7 +7716,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
         <v>38808</v>
       </c>
@@ -7738,7 +7742,7 @@
         <v>38835</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>218</v>
@@ -7758,7 +7762,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23">
         <v>38838</v>
       </c>
@@ -7782,7 +7786,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23">
         <v>38869</v>
       </c>
@@ -7808,7 +7812,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>223</v>
@@ -7828,7 +7832,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="48"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <v>38899</v>
       </c>
@@ -7854,7 +7858,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>53</v>
@@ -7876,7 +7880,7 @@
         <v>38926</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>224</v>
@@ -7896,7 +7900,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23">
         <v>38930</v>
       </c>
@@ -7920,7 +7924,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23">
         <v>38961</v>
       </c>
@@ -7946,7 +7950,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>226</v>
@@ -7966,7 +7970,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <v>38991</v>
       </c>
@@ -7992,7 +7996,7 @@
         <v>39009</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>53</v>
@@ -8014,7 +8018,7 @@
         <v>39021</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>227</v>
@@ -8034,7 +8038,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <v>39022</v>
       </c>
@@ -8058,7 +8062,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>45</v>
@@ -8078,7 +8082,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <v>39052</v>
       </c>
@@ -8102,7 +8106,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="47" t="s">
         <v>100</v>
       </c>
@@ -8124,7 +8128,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23">
         <v>39083</v>
       </c>
@@ -8150,7 +8154,7 @@
         <v>39106</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>45</v>
@@ -8170,7 +8174,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>230</v>
@@ -8190,7 +8194,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <v>39114</v>
       </c>
@@ -8214,7 +8218,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
         <v>39142</v>
       </c>
@@ -8240,7 +8244,7 @@
         <v>39150</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>45</v>
@@ -8260,7 +8264,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>47</v>
@@ -8282,7 +8286,7 @@
         <v>39170</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>239</v>
@@ -8302,7 +8306,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <v>39173</v>
       </c>
@@ -8328,7 +8332,7 @@
         <v>39195</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>47</v>
@@ -8350,7 +8354,7 @@
         <v>39196</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>45</v>
@@ -8370,7 +8374,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>47</v>
@@ -8392,7 +8396,7 @@
         <v>39219</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>240</v>
@@ -8412,7 +8416,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23">
         <v>39203</v>
       </c>
@@ -8438,7 +8442,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>241</v>
@@ -8458,7 +8462,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23">
         <v>39234</v>
       </c>
@@ -8484,7 +8488,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>47</v>
@@ -8506,7 +8510,7 @@
         <v>39261</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>242</v>
@@ -8526,7 +8530,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <v>39264</v>
       </c>
@@ -8552,7 +8556,7 @@
         <v>39272</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>53</v>
@@ -8574,7 +8578,7 @@
         <v>39282</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>46</v>
@@ -8596,7 +8600,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>243</v>
@@ -8616,7 +8620,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <v>39295</v>
       </c>
@@ -8642,7 +8646,7 @@
         <v>39308</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>46</v>
@@ -8664,7 +8668,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>47</v>
@@ -8686,7 +8690,7 @@
         <v>39324</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>53</v>
@@ -8708,7 +8712,7 @@
         <v>39331</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>249</v>
@@ -8728,7 +8732,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="48"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23">
         <v>39326</v>
       </c>
@@ -8752,7 +8756,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23">
         <v>39356</v>
       </c>
@@ -8778,7 +8782,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>46</v>
@@ -8800,7 +8804,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>251</v>
@@ -8820,7 +8824,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23">
         <v>39387</v>
       </c>
@@ -8846,7 +8850,7 @@
         <v>39420</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>45</v>
@@ -8866,7 +8870,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>252</v>
@@ -8886,7 +8890,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23">
         <v>39417</v>
       </c>
@@ -8908,7 +8912,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="47" t="s">
         <v>101</v>
       </c>
@@ -8930,7 +8934,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23">
         <v>39448</v>
       </c>
@@ -8956,7 +8960,7 @@
         <v>39472</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>47</v>
@@ -8975,7 +8979,7 @@
         <v>39476</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23">
         <v>39479</v>
       </c>
@@ -8995,7 +8999,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <v>39508</v>
       </c>
@@ -9021,7 +9025,7 @@
         <v>39535</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>45</v>
@@ -9041,7 +9045,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>183</v>
@@ -9061,7 +9065,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23">
         <v>39539</v>
       </c>
@@ -9087,7 +9091,7 @@
         <v>39553</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>45</v>
@@ -9107,7 +9111,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>257</v>
@@ -9127,7 +9131,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23">
         <v>39569</v>
       </c>
@@ -9153,7 +9157,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>258</v>
@@ -9173,7 +9177,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23">
         <v>39600</v>
       </c>
@@ -9197,7 +9201,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23">
         <v>39630</v>
       </c>
@@ -9221,7 +9225,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <v>39661</v>
       </c>
@@ -9245,7 +9249,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <v>39692</v>
       </c>
@@ -9271,7 +9275,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>46</v>
@@ -9293,7 +9297,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>265</v>
@@ -9313,7 +9317,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23">
         <v>39722</v>
       </c>
@@ -9339,7 +9343,7 @@
         <v>39750</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>266</v>
@@ -9359,7 +9363,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
         <v>39753</v>
       </c>
@@ -9385,7 +9389,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
         <v>267</v>
@@ -9405,7 +9409,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23">
         <v>39783</v>
       </c>
@@ -9429,7 +9433,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>53</v>
@@ -9451,7 +9455,7 @@
         <v>39798</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
         <v>47</v>
@@ -9473,7 +9477,7 @@
         <v>39801</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>268</v>
@@ -9493,7 +9497,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="47" t="s">
         <v>102</v>
       </c>
@@ -9515,7 +9519,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23">
         <v>39814</v>
       </c>
@@ -9541,7 +9545,7 @@
         <v>39842</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>272</v>
@@ -9561,7 +9565,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23">
         <v>39845</v>
       </c>
@@ -9587,7 +9591,7 @@
         <v>39861</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>273</v>
@@ -9607,7 +9611,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <v>39873</v>
       </c>
@@ -9633,7 +9637,7 @@
         <v>39876</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>274</v>
@@ -9650,7 +9654,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="48"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>45</v>
@@ -9667,7 +9671,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23">
         <v>39904</v>
       </c>
@@ -9693,7 +9697,7 @@
         <v>39920</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>45</v>
@@ -9713,7 +9717,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>275</v>
@@ -9733,7 +9737,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23">
         <v>39934</v>
       </c>
@@ -9759,7 +9763,7 @@
         <v>39951</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>53</v>
@@ -9781,7 +9785,7 @@
         <v>39961</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>276</v>
@@ -9801,7 +9805,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
         <v>39965</v>
       </c>
@@ -9825,7 +9829,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23">
         <v>39995</v>
       </c>
@@ -9851,7 +9855,7 @@
         <v>40015</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>47</v>
@@ -9873,7 +9877,7 @@
         <v>40021</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>278</v>
@@ -9893,7 +9897,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23">
         <v>40026</v>
       </c>
@@ -9919,7 +9923,7 @@
         <v>40052</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>279</v>
@@ -9939,7 +9943,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <v>40057</v>
       </c>
@@ -9965,7 +9969,7 @@
         <v>40060</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>53</v>
@@ -9987,7 +9991,7 @@
         <v>40086</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>47</v>
@@ -10009,7 +10013,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>280</v>
@@ -10029,7 +10033,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <v>40087</v>
       </c>
@@ -10055,7 +10059,7 @@
         <v>40102</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>281</v>
@@ -10075,7 +10079,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23">
         <v>40118</v>
       </c>
@@ -10101,7 +10105,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>46</v>
@@ -10123,7 +10127,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>284</v>
@@ -10143,7 +10147,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
         <v>40148</v>
       </c>
@@ -10167,7 +10171,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>53</v>
@@ -10187,7 +10191,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="47" t="s">
         <v>103</v>
       </c>
@@ -10209,7 +10213,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <v>40179</v>
       </c>
@@ -10233,7 +10237,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>286</v>
@@ -10253,7 +10257,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <v>40210</v>
       </c>
@@ -10279,7 +10283,7 @@
         <v>40212</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>47</v>
@@ -10301,7 +10305,7 @@
         <v>40226</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>287</v>
@@ -10321,7 +10325,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <v>40238</v>
       </c>
@@ -10345,7 +10349,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23">
         <v>40269</v>
       </c>
@@ -10371,7 +10375,7 @@
         <v>40291</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>45</v>
@@ -10391,7 +10395,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>289</v>
@@ -10411,7 +10415,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
         <v>40299</v>
       </c>
@@ -10435,7 +10439,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <v>40330</v>
       </c>
@@ -10461,7 +10465,7 @@
         <v>40332</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>291</v>
@@ -10481,7 +10485,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23">
         <v>40360</v>
       </c>
@@ -10507,7 +10511,7 @@
         <v>40371</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>47</v>
@@ -10529,7 +10533,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>53</v>
@@ -10551,7 +10555,7 @@
         <v>40386</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>47</v>
@@ -10570,7 +10574,7 @@
         <v>40381</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>297</v>
@@ -10590,7 +10594,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="48"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23">
         <v>40391</v>
       </c>
@@ -10616,7 +10620,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>296</v>
@@ -10636,7 +10640,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23">
         <v>40422</v>
       </c>
@@ -10662,7 +10666,7 @@
         <v>40435</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>46</v>
@@ -10684,7 +10688,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
         <v>299</v>
@@ -10704,7 +10708,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23">
         <v>40452</v>
       </c>
@@ -10730,7 +10734,7 @@
         <v>40471</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>300</v>
@@ -10750,7 +10754,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23">
         <v>40483</v>
       </c>
@@ -10776,7 +10780,7 @@
         <v>40487</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>45</v>
@@ -10796,7 +10800,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>47</v>
@@ -10818,7 +10822,7 @@
         <v>40515</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>301</v>
@@ -10838,7 +10842,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <v>40513</v>
       </c>
@@ -10864,7 +10868,7 @@
         <v>40542</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>157</v>
@@ -10884,7 +10888,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>302</v>
@@ -10904,7 +10908,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="47" t="s">
         <v>104</v>
       </c>
@@ -10926,7 +10930,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23">
         <v>40544</v>
       </c>
@@ -10952,7 +10956,7 @@
         <v>40547</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
         <v>47</v>
@@ -10974,7 +10978,7 @@
         <v>40556</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23"/>
       <c r="B385" s="20" t="s">
         <v>45</v>
@@ -10994,7 +10998,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>305</v>
@@ -11014,7 +11018,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23">
         <v>40575</v>
       </c>
@@ -11040,7 +11044,7 @@
         <v>40578</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>53</v>
@@ -11062,7 +11066,7 @@
         <v>40599</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>307</v>
@@ -11082,7 +11086,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23">
         <v>40603</v>
       </c>
@@ -11108,7 +11112,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23"/>
       <c r="B391" s="20" t="s">
         <v>47</v>
@@ -11130,7 +11134,7 @@
         <v>40631</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>45</v>
@@ -11150,7 +11154,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>308</v>
@@ -11170,7 +11174,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23">
         <v>40634</v>
       </c>
@@ -11196,7 +11200,7 @@
         <v>40658</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
         <v>45</v>
@@ -11216,7 +11220,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>309</v>
@@ -11236,7 +11240,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23">
         <v>40664</v>
       </c>
@@ -11262,7 +11266,7 @@
         <v>40679</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>47</v>
@@ -11284,7 +11288,7 @@
         <v>40697</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>310</v>
@@ -11304,7 +11308,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23">
         <v>40695</v>
       </c>
@@ -11330,7 +11334,7 @@
         <v>40739</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>47</v>
@@ -11352,7 +11356,7 @@
         <v>40757</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
         <v>311</v>
@@ -11372,7 +11376,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23">
         <v>40725</v>
       </c>
@@ -11396,7 +11400,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23">
         <v>40756</v>
       </c>
@@ -11420,7 +11424,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23">
         <v>40787</v>
       </c>
@@ -11446,7 +11450,7 @@
         <v>40802</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23"/>
       <c r="B406" s="20" t="s">
         <v>47</v>
@@ -11465,7 +11469,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>47</v>
@@ -11487,7 +11491,7 @@
         <v>40813</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>316</v>
@@ -11507,7 +11511,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="48"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23">
         <v>40817</v>
       </c>
@@ -11533,7 +11537,7 @@
         <v>40827</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>317</v>
@@ -11553,7 +11557,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23">
         <v>40848</v>
       </c>
@@ -11579,7 +11583,7 @@
         <v>40851</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
         <v>53</v>
@@ -11601,7 +11605,7 @@
         <v>40872</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
         <v>318</v>
@@ -11621,7 +11625,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23">
         <v>40878</v>
       </c>
@@ -11647,7 +11651,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>47</v>
@@ -11669,7 +11673,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>53</v>
@@ -11689,7 +11693,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23"/>
       <c r="B417" s="20" t="s">
         <v>320</v>
@@ -11706,7 +11710,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="47" t="s">
         <v>105</v>
       </c>
@@ -11728,7 +11732,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23">
         <v>40909</v>
       </c>
@@ -11754,7 +11758,7 @@
         <v>40912</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>47</v>
@@ -11773,7 +11777,7 @@
         <v>40921</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>321</v>
@@ -11790,7 +11794,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23">
         <v>40940</v>
       </c>
@@ -11816,7 +11820,7 @@
         <v>40956</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23"/>
       <c r="B423" s="20" t="s">
         <v>47</v>
@@ -11835,7 +11839,7 @@
         <v>40947</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>47</v>
@@ -11854,7 +11858,7 @@
         <v>40955</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>47</v>
@@ -11873,7 +11877,7 @@
         <v>40967</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>47</v>
@@ -11892,7 +11896,7 @@
         <v>40969</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>322</v>
@@ -11909,7 +11913,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23">
         <v>40969</v>
       </c>
@@ -11935,7 +11939,7 @@
         <v>40989</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>323</v>
@@ -11955,7 +11959,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="48"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="23">
         <v>41000</v>
       </c>
@@ -11981,7 +11985,7 @@
         <v>41019</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23"/>
       <c r="B431" s="20" t="s">
         <v>45</v>
@@ -12001,7 +12005,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23"/>
       <c r="B432" s="20" t="s">
         <v>316</v>
@@ -12021,7 +12025,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23">
         <v>41030</v>
       </c>
@@ -12047,7 +12051,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="23"/>
       <c r="B434" s="20" t="s">
         <v>324</v>
@@ -12067,7 +12071,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="23">
         <v>41061</v>
       </c>
@@ -12093,7 +12097,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>325</v>
@@ -12113,7 +12117,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="23">
         <v>41091</v>
       </c>
@@ -12139,7 +12143,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="23"/>
       <c r="B438" s="20" t="s">
         <v>53</v>
@@ -12161,7 +12165,7 @@
         <v>41117</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
         <v>47</v>
@@ -12183,7 +12187,7 @@
         <v>41115</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="23"/>
       <c r="B440" s="20" t="s">
         <v>326</v>
@@ -12203,7 +12207,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="23">
         <v>41122</v>
       </c>
@@ -12227,7 +12231,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>47</v>
@@ -12249,7 +12253,7 @@
         <v>41149</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="23">
         <v>41153</v>
       </c>
@@ -12275,7 +12279,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="23"/>
       <c r="B444" s="20" t="s">
         <v>47</v>
@@ -12297,7 +12301,7 @@
         <v>41199</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="23"/>
       <c r="B445" s="20" t="s">
         <v>53</v>
@@ -12319,7 +12323,7 @@
         <v>41205</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="23"/>
       <c r="B446" s="20" t="s">
         <v>328</v>
@@ -12339,7 +12343,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="23">
         <v>41183</v>
       </c>
@@ -12365,7 +12369,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>329</v>
@@ -12385,7 +12389,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="23">
         <v>41214</v>
       </c>
@@ -12409,7 +12413,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="23">
         <v>41244</v>
       </c>
@@ -12435,7 +12439,7 @@
         <v>41256</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="23"/>
       <c r="B451" s="20" t="s">
         <v>45</v>
@@ -12452,7 +12456,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="23"/>
       <c r="B452" s="20" t="s">
         <v>335</v>
@@ -12469,7 +12473,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="47" t="s">
         <v>106</v>
       </c>
@@ -12491,7 +12495,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="23">
         <v>41275</v>
       </c>
@@ -12515,7 +12519,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="23">
         <v>41306</v>
       </c>
@@ -12541,7 +12545,7 @@
         <v>41325</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>52</v>
@@ -12563,7 +12567,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="23"/>
       <c r="B457" s="20" t="s">
         <v>337</v>
@@ -12583,7 +12587,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="23">
         <v>41334</v>
       </c>
@@ -12607,7 +12611,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="23">
         <v>41365</v>
       </c>
@@ -12633,7 +12637,7 @@
         <v>41372</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="23"/>
       <c r="B460" s="20" t="s">
         <v>47</v>
@@ -12655,7 +12659,7 @@
         <v>41387</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
         <v>45</v>
@@ -12675,7 +12679,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="23"/>
       <c r="B462" s="20" t="s">
         <v>46</v>
@@ -12697,7 +12701,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="23"/>
       <c r="B463" s="20" t="s">
         <v>339</v>
@@ -12717,7 +12721,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="23">
         <v>41395</v>
       </c>
@@ -12743,7 +12747,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="23"/>
       <c r="B465" s="20" t="s">
         <v>47</v>
@@ -12765,7 +12769,7 @@
         <v>41422</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="23"/>
       <c r="B466" s="20" t="s">
         <v>340</v>
@@ -12785,7 +12789,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="23">
         <v>41426</v>
       </c>
@@ -12811,7 +12815,7 @@
         <v>41431</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>131</v>
@@ -12831,7 +12835,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="23">
         <v>41456</v>
       </c>
@@ -12857,7 +12861,7 @@
         <v>41457</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="23"/>
       <c r="B470" s="20" t="s">
         <v>47</v>
@@ -12879,7 +12883,7 @@
         <v>41466</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="23"/>
       <c r="B471" s="20" t="s">
         <v>345</v>
@@ -12899,7 +12903,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="23">
         <v>41487</v>
       </c>
@@ -12925,7 +12929,7 @@
         <v>41506</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="23"/>
       <c r="B473" s="20" t="s">
         <v>346</v>
@@ -12945,7 +12949,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="23">
         <v>41518</v>
       </c>
@@ -12971,7 +12975,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="23"/>
       <c r="B475" s="20" t="s">
         <v>347</v>
@@ -12991,7 +12995,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="23">
         <v>41548</v>
       </c>
@@ -13017,7 +13021,7 @@
         <v>41578</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="23"/>
       <c r="B477" s="20" t="s">
         <v>348</v>
@@ -13037,7 +13041,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="23">
         <v>41579</v>
       </c>
@@ -13061,7 +13065,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="23"/>
       <c r="B479" s="20" t="s">
         <v>349</v>
@@ -13081,7 +13085,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="23">
         <v>41609</v>
       </c>
@@ -13107,7 +13111,7 @@
         <v>41610</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="23"/>
       <c r="B481" s="20" t="s">
         <v>53</v>
@@ -13127,7 +13131,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="23"/>
       <c r="B482" s="20" t="s">
         <v>350</v>
@@ -13144,7 +13148,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>45</v>
@@ -13164,7 +13168,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="47" t="s">
         <v>107</v>
       </c>
@@ -13186,7 +13190,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="23">
         <v>41640</v>
       </c>
@@ -13212,7 +13216,7 @@
         <v>41652</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="23"/>
       <c r="B486" s="20" t="s">
         <v>47</v>
@@ -13234,7 +13238,7 @@
         <v>41656</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="23"/>
       <c r="B487" s="20" t="s">
         <v>351</v>
@@ -13254,7 +13258,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="23">
         <v>41671</v>
       </c>
@@ -13280,7 +13284,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="23"/>
       <c r="B489" s="20" t="s">
         <v>168</v>
@@ -13302,7 +13306,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="23"/>
       <c r="B490" s="20" t="s">
         <v>47</v>
@@ -13324,7 +13328,7 @@
         <v>41712</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="23"/>
       <c r="B491" s="20" t="s">
         <v>357</v>
@@ -13341,7 +13345,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="48"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="23">
         <v>41699</v>
       </c>
@@ -13365,7 +13369,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="23">
         <v>41730</v>
       </c>
@@ -13389,7 +13393,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="23">
         <v>41760</v>
       </c>
@@ -13413,7 +13417,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="23"/>
       <c r="B495" s="20" t="s">
         <v>47</v>
@@ -13435,7 +13439,7 @@
         <v>41789</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="23"/>
       <c r="B496" s="20" t="s">
         <v>360</v>
@@ -13455,7 +13459,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="23">
         <v>41791</v>
       </c>
@@ -13481,7 +13485,7 @@
         <v>41817</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="23">
         <v>41821</v>
       </c>
@@ -13507,7 +13511,7 @@
         <v>41848</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="23">
         <v>41852</v>
       </c>
@@ -13533,7 +13537,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="23">
         <v>41883</v>
       </c>
@@ -13557,7 +13561,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="23">
         <v>41913</v>
       </c>
@@ -13581,7 +13585,7 @@
         <v>41936</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="23"/>
       <c r="B502" s="20" t="s">
         <v>362</v>
@@ -13601,7 +13605,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="23">
         <v>41944</v>
       </c>
@@ -13627,7 +13631,7 @@
         <v>41956</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="23"/>
       <c r="B504" s="20" t="s">
         <v>53</v>
@@ -13649,7 +13653,7 @@
         <v>41969</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="23"/>
       <c r="B505" s="20" t="s">
         <v>363</v>
@@ -13669,7 +13673,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="23">
         <v>41974</v>
       </c>
@@ -13695,7 +13699,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="23"/>
       <c r="B507" s="20" t="s">
         <v>53</v>
@@ -13714,7 +13718,7 @@
         <v>41991</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="23"/>
       <c r="B508" s="20" t="s">
         <v>61</v>
@@ -13731,7 +13735,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="23"/>
       <c r="B509" s="20" t="s">
         <v>195</v>
@@ -13748,7 +13752,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="47" t="s">
         <v>108</v>
       </c>
@@ -13770,7 +13774,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="23">
         <v>42005</v>
       </c>
@@ -13796,7 +13800,7 @@
         <v>42027</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="23"/>
       <c r="B512" s="20" t="s">
         <v>367</v>
@@ -13816,7 +13820,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="23">
         <v>42036</v>
       </c>
@@ -13842,7 +13846,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="23"/>
       <c r="B514" s="20" t="s">
         <v>223</v>
@@ -13862,7 +13866,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="23">
         <v>42064</v>
       </c>
@@ -13888,7 +13892,7 @@
         <v>42090</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="23"/>
       <c r="B516" s="20" t="s">
         <v>368</v>
@@ -13908,7 +13912,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="23">
         <v>42095</v>
       </c>
@@ -13932,7 +13936,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="23">
         <v>42125</v>
       </c>
@@ -13956,7 +13960,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="23"/>
       <c r="B519" s="20" t="s">
         <v>157</v>
@@ -13978,7 +13982,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="23"/>
       <c r="B520" s="20" t="s">
         <v>45</v>
@@ -13998,7 +14002,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="23"/>
       <c r="B521" s="20" t="s">
         <v>305</v>
@@ -14018,7 +14022,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="23">
         <v>42156</v>
       </c>
@@ -14042,7 +14046,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="23">
         <v>42186</v>
       </c>
@@ -14068,7 +14072,7 @@
         <v>42193</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="23"/>
       <c r="B524" s="20" t="s">
         <v>47</v>
@@ -14090,7 +14094,7 @@
         <v>42209</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="23"/>
       <c r="B525" s="20" t="s">
         <v>371</v>
@@ -14110,7 +14114,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="23">
         <v>42217</v>
       </c>
@@ -14136,7 +14140,7 @@
         <v>42244</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="23"/>
       <c r="B527" s="20" t="s">
         <v>377</v>
@@ -14156,7 +14160,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="48"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="23">
         <v>42248</v>
       </c>
@@ -14182,7 +14186,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="23"/>
       <c r="B529" s="20" t="s">
         <v>378</v>
@@ -14202,7 +14206,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="23">
         <v>42278</v>
       </c>
@@ -14228,7 +14232,7 @@
         <v>42286</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="23"/>
       <c r="B531" s="20" t="s">
         <v>47</v>
@@ -14250,7 +14254,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="23"/>
       <c r="B532" s="20" t="s">
         <v>379</v>
@@ -14270,7 +14274,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="23">
         <v>42309</v>
       </c>
@@ -14296,7 +14300,7 @@
         <v>42333</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="23"/>
       <c r="B534" s="20" t="s">
         <v>380</v>
@@ -14316,7 +14320,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="23">
         <v>42339</v>
       </c>
@@ -14342,7 +14346,7 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="23"/>
       <c r="B536" s="20" t="s">
         <v>62</v>
@@ -14364,7 +14368,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="23"/>
       <c r="B537" s="20" t="s">
         <v>302</v>
@@ -14384,7 +14388,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="47" t="s">
         <v>109</v>
       </c>
@@ -14406,7 +14410,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="23">
         <v>42370</v>
       </c>
@@ -14432,7 +14436,7 @@
         <v>42383</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="23"/>
       <c r="B540" s="20" t="s">
         <v>45</v>
@@ -14452,7 +14456,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="23"/>
       <c r="B541" s="20" t="s">
         <v>381</v>
@@ -14472,7 +14476,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="23">
         <v>42401</v>
       </c>
@@ -14498,7 +14502,7 @@
         <v>42402</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="23"/>
       <c r="B543" s="20" t="s">
         <v>382</v>
@@ -14518,7 +14522,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="23">
         <v>42430</v>
       </c>
@@ -14544,7 +14548,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="23"/>
       <c r="B545" s="20" t="s">
         <v>383</v>
@@ -14564,7 +14568,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="23">
         <v>42461</v>
       </c>
@@ -14590,7 +14594,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="23"/>
       <c r="B547" s="20" t="s">
         <v>168</v>
@@ -14612,7 +14616,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="23"/>
       <c r="B548" s="20" t="s">
         <v>47</v>
@@ -14634,7 +14638,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="23"/>
       <c r="B549" s="20" t="s">
         <v>45</v>
@@ -14654,7 +14658,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="23"/>
       <c r="B550" s="20" t="s">
         <v>49</v>
@@ -14676,7 +14680,7 @@
         <v>42496</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="23"/>
       <c r="B551" s="20" t="s">
         <v>387</v>
@@ -14696,7 +14700,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="23">
         <v>42491</v>
       </c>
@@ -14722,7 +14726,7 @@
         <v>42502</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="23"/>
       <c r="B553" s="20" t="s">
         <v>46</v>
@@ -14744,7 +14748,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="23"/>
       <c r="B554" s="20" t="s">
         <v>47</v>
@@ -14766,7 +14770,7 @@
         <v>42524</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="23"/>
       <c r="B555" s="20" t="s">
         <v>388</v>
@@ -14786,7 +14790,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="23">
         <v>42522</v>
       </c>
@@ -14812,7 +14816,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="23"/>
       <c r="B557" s="20" t="s">
         <v>46</v>
@@ -14834,7 +14838,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="23"/>
       <c r="B558" s="20" t="s">
         <v>389</v>
@@ -14854,7 +14858,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="23">
         <v>42552</v>
       </c>
@@ -14878,7 +14882,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="23">
         <v>42583</v>
       </c>
@@ -14904,7 +14908,7 @@
         <v>42584</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="23"/>
       <c r="B561" s="20" t="s">
         <v>391</v>
@@ -14924,7 +14928,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="23">
         <v>42614</v>
       </c>
@@ -14950,7 +14954,7 @@
         <v>42627</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="23"/>
       <c r="B563" s="20" t="s">
         <v>47</v>
@@ -14972,7 +14976,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="23">
         <v>42644</v>
       </c>
@@ -14998,7 +15002,7 @@
         <v>42662</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="23"/>
       <c r="B565" s="20" t="s">
         <v>47</v>
@@ -15020,7 +15024,7 @@
         <v>42671</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="23"/>
       <c r="B566" s="20" t="s">
         <v>397</v>
@@ -15040,7 +15044,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="23">
         <v>42675</v>
       </c>
@@ -15066,7 +15070,7 @@
         <v>42696</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="23"/>
       <c r="B568" s="20" t="s">
         <v>46</v>
@@ -15088,7 +15092,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="23"/>
       <c r="B569" s="20" t="s">
         <v>398</v>
@@ -15108,7 +15112,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="23">
         <v>42705</v>
       </c>
@@ -15134,7 +15138,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="23"/>
       <c r="B571" s="20" t="s">
         <v>399</v>
@@ -15154,7 +15158,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="23"/>
       <c r="B572" s="20" t="s">
         <v>45</v>
@@ -15174,7 +15178,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="47" t="s">
         <v>110</v>
       </c>
@@ -15196,7 +15200,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="23">
         <v>42736</v>
       </c>
@@ -15222,7 +15226,7 @@
         <v>42759</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="23"/>
       <c r="B575" s="20" t="s">
         <v>403</v>
@@ -15242,7 +15246,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="23"/>
       <c r="B576" s="20" t="s">
         <v>45</v>
@@ -15262,7 +15266,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="23"/>
       <c r="B577" s="20" t="s">
         <v>46</v>
@@ -15284,7 +15288,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="23">
         <v>42767</v>
       </c>
@@ -15304,7 +15308,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="23">
         <v>42795</v>
       </c>
@@ -15330,7 +15334,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="23"/>
       <c r="B580" s="20" t="s">
         <v>46</v>
@@ -15352,7 +15356,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="23">
         <v>42826</v>
       </c>
@@ -15378,7 +15382,7 @@
         <v>42851</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="23"/>
       <c r="B582" s="20" t="s">
         <v>45</v>
@@ -15398,7 +15402,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="23">
         <v>42856</v>
       </c>
@@ -15424,7 +15428,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="23">
         <v>42887</v>
       </c>
@@ -15450,7 +15454,7 @@
         <v>42899</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="23"/>
       <c r="B585" s="20" t="s">
         <v>47</v>
@@ -15472,7 +15476,7 @@
         <v>42909</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="23">
         <v>42917</v>
       </c>
@@ -15498,7 +15502,7 @@
         <v>42943</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="23">
         <v>42948</v>
       </c>
@@ -15524,7 +15528,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="23">
         <v>42979</v>
       </c>
@@ -15550,7 +15554,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="23"/>
       <c r="B589" s="20" t="s">
         <v>47</v>
@@ -15572,7 +15576,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="23"/>
       <c r="B590" s="20" t="s">
         <v>46</v>
@@ -15594,7 +15598,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="23"/>
       <c r="B591" s="20" t="s">
         <v>47</v>
@@ -15616,7 +15620,7 @@
         <v>43035</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="23">
         <v>43009</v>
       </c>
@@ -15636,7 +15640,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="23">
         <v>43040</v>
       </c>
@@ -15662,7 +15666,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="23"/>
       <c r="B594" s="20" t="s">
         <v>47</v>
@@ -15684,7 +15688,7 @@
         <v>43060</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="23">
         <v>43070</v>
       </c>
@@ -15710,7 +15714,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="23"/>
       <c r="B596" s="20" t="s">
         <v>45</v>
@@ -15730,7 +15734,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="23"/>
       <c r="B597" s="20" t="s">
         <v>114</v>
@@ -15752,7 +15756,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="23"/>
       <c r="B598" s="20" t="s">
         <v>128</v>
@@ -15772,7 +15776,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="47" t="s">
         <v>44</v>
       </c>
@@ -15794,7 +15798,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>43101</v>
       </c>
@@ -15818,7 +15822,7 @@
         <v>43119</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>46</v>
@@ -15837,7 +15841,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>43132</v>
       </c>
@@ -15863,7 +15867,7 @@
         <v>43154</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <v>43160</v>
       </c>
@@ -15883,7 +15887,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>43191</v>
       </c>
@@ -15909,7 +15913,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40"/>
       <c r="B605" s="20" t="s">
         <v>47</v>
@@ -15928,7 +15932,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <v>43221</v>
       </c>
@@ -15952,7 +15956,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>49</v>
@@ -15971,7 +15975,7 @@
         <v>43227</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>47</v>
@@ -15990,7 +15994,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40"/>
       <c r="B609" s="20" t="s">
         <v>47</v>
@@ -16009,7 +16013,7 @@
         <v>43258</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>47</v>
@@ -16028,7 +16032,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>47</v>
@@ -16047,7 +16051,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>43252</v>
       </c>
@@ -16073,7 +16077,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <v>43282</v>
       </c>
@@ -16099,7 +16103,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <v>43313</v>
       </c>
@@ -16125,7 +16129,7 @@
         <v>43334</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>47</v>
@@ -16144,7 +16148,7 @@
         <v>43348</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <v>43344</v>
       </c>
@@ -16164,7 +16168,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <v>43374</v>
       </c>
@@ -16190,7 +16194,7 @@
         <v>43375</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>54</v>
@@ -16209,7 +16213,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <v>43405</v>
       </c>
@@ -16235,7 +16239,7 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>47</v>
@@ -16254,7 +16258,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <v>43435</v>
       </c>
@@ -16280,7 +16284,7 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40"/>
       <c r="B622" s="20" t="s">
         <v>52</v>
@@ -16302,7 +16306,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>53</v>
@@ -16322,7 +16326,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="47" t="s">
         <v>58</v>
       </c>
@@ -16340,7 +16344,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
         <v>43466</v>
       </c>
@@ -16364,7 +16368,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <v>43497</v>
       </c>
@@ -16390,7 +16394,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>47</v>
@@ -16409,7 +16413,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>47</v>
@@ -16428,7 +16432,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <v>43525</v>
       </c>
@@ -16454,7 +16458,7 @@
         <v>43532</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <v>43556</v>
       </c>
@@ -16480,7 +16484,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>45</v>
@@ -16497,7 +16501,7 @@
         <v>43592</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <v>43586</v>
       </c>
@@ -16523,7 +16527,7 @@
         <v>43593</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>47</v>
@@ -16542,7 +16546,7 @@
         <v>43613</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
         <v>43617</v>
       </c>
@@ -16568,7 +16572,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
         <v>43647</v>
       </c>
@@ -16594,7 +16598,7 @@
         <v>43650</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
         <v>59</v>
@@ -16613,7 +16617,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <v>43678</v>
       </c>
@@ -16633,7 +16637,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <v>43709</v>
       </c>
@@ -16659,7 +16663,7 @@
         <v>43718</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <v>43739</v>
       </c>
@@ -16685,7 +16689,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>47</v>
@@ -16704,7 +16708,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
         <v>43770</v>
       </c>
@@ -16730,7 +16734,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>49</v>
@@ -16749,7 +16753,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>49</v>
@@ -16766,7 +16770,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
         <v>47</v>
@@ -16785,7 +16789,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <v>43800</v>
       </c>
@@ -16811,7 +16815,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40"/>
       <c r="B646" s="20" t="s">
         <v>61</v>
@@ -16831,7 +16835,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40"/>
       <c r="B647" s="20" t="s">
         <v>62</v>
@@ -16853,7 +16857,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="47" t="s">
         <v>64</v>
       </c>
@@ -16871,7 +16875,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
         <v>43831</v>
       </c>
@@ -16897,7 +16901,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
         <v>65</v>
@@ -16914,7 +16918,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40"/>
       <c r="B651" s="20" t="s">
         <v>46</v>
@@ -16933,7 +16937,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <v>43862</v>
       </c>
@@ -16953,7 +16957,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
         <v>43891</v>
       </c>
@@ -16973,7 +16977,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
         <v>43922</v>
       </c>
@@ -16993,7 +16997,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
         <v>43952</v>
       </c>
@@ -17013,7 +17017,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <v>43983</v>
       </c>
@@ -17033,7 +17037,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <v>44013</v>
       </c>
@@ -17057,7 +17061,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40"/>
       <c r="B658" s="20" t="s">
         <v>47</v>
@@ -17076,7 +17080,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
         <v>44044</v>
       </c>
@@ -17102,7 +17106,7 @@
         <v>44051</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40"/>
       <c r="B660" s="20" t="s">
         <v>68</v>
@@ -17121,7 +17125,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
         <v>44075</v>
       </c>
@@ -17147,7 +17151,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>47</v>
@@ -17166,7 +17170,7 @@
         <v>44118</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40">
         <v>44105</v>
       </c>
@@ -17186,7 +17190,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <v>44136</v>
       </c>
@@ -17206,7 +17210,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
         <v>44166</v>
       </c>
@@ -17230,7 +17234,7 @@
         <v>44183</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40"/>
       <c r="B666" s="20" t="s">
         <v>69</v>
@@ -17252,7 +17256,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40"/>
       <c r="B667" s="20" t="s">
         <v>46</v>
@@ -17271,7 +17275,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="47" t="s">
         <v>72</v>
       </c>
@@ -17289,7 +17293,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
         <v>44197</v>
       </c>
@@ -17309,7 +17313,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
         <v>44228</v>
       </c>
@@ -17335,7 +17339,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
         <v>44256</v>
       </c>
@@ -17355,7 +17359,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
         <v>44287</v>
       </c>
@@ -17375,7 +17379,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
         <v>44317</v>
       </c>
@@ -17395,7 +17399,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
         <v>44348</v>
       </c>
@@ -17415,7 +17419,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <v>44378</v>
       </c>
@@ -17435,7 +17439,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
         <v>44409</v>
       </c>
@@ -17455,7 +17459,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40">
         <v>44440</v>
       </c>
@@ -17475,7 +17479,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
         <v>44470</v>
       </c>
@@ -17495,7 +17499,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
         <v>44501</v>
       </c>
@@ -17517,7 +17521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <v>44531</v>
       </c>
@@ -17541,7 +17545,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40"/>
       <c r="B681" s="20" t="s">
         <v>75</v>
@@ -17563,7 +17567,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40"/>
       <c r="B682" s="20" t="s">
         <v>69</v>
@@ -17585,7 +17589,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="47" t="s">
         <v>80</v>
       </c>
@@ -17603,7 +17607,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
         <v>44562</v>
       </c>
@@ -17623,7 +17627,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
         <v>44593</v>
       </c>
@@ -17643,7 +17647,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
         <v>44621</v>
       </c>
@@ -17667,7 +17671,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
         <v>44652</v>
       </c>
@@ -17691,7 +17695,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40"/>
       <c r="B688" s="20" t="s">
         <v>415</v>
@@ -17713,7 +17717,7 @@
         <v>44679</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40"/>
       <c r="B689" s="20" t="s">
         <v>425</v>
@@ -17733,7 +17737,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="48"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
         <v>44682</v>
       </c>
@@ -17759,7 +17763,7 @@
         <v>44692</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40"/>
       <c r="B691" s="20" t="s">
         <v>168</v>
@@ -17781,7 +17785,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40"/>
       <c r="B692" s="20" t="s">
         <v>424</v>
@@ -17801,7 +17805,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
         <v>44713</v>
       </c>
@@ -17827,7 +17831,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40"/>
       <c r="B694" s="20" t="s">
         <v>131</v>
@@ -17847,7 +17851,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
         <v>44743</v>
       </c>
@@ -17873,7 +17877,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40"/>
       <c r="B696" s="20" t="s">
         <v>420</v>
@@ -17893,7 +17897,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
         <v>44774</v>
       </c>
@@ -17919,7 +17923,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40"/>
       <c r="B698" s="20" t="s">
         <v>415</v>
@@ -17941,7 +17945,7 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40"/>
       <c r="B699" s="20" t="s">
         <v>417</v>
@@ -17961,7 +17965,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="48"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
         <v>44805</v>
       </c>
@@ -17987,7 +17991,7 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40"/>
       <c r="B701" s="20" t="s">
         <v>416</v>
@@ -18007,7 +18011,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="48"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
         <v>44835</v>
       </c>
@@ -18033,7 +18037,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40"/>
       <c r="B703" s="20" t="s">
         <v>47</v>
@@ -18055,7 +18059,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
         <v>44866</v>
       </c>
@@ -18075,7 +18079,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
         <v>44896</v>
       </c>
@@ -18101,7 +18105,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40"/>
       <c r="B706" s="20" t="s">
         <v>83</v>
@@ -18123,7 +18127,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="47" t="s">
         <v>81</v>
       </c>
@@ -18141,7 +18145,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
         <v>44927</v>
       </c>
@@ -18161,7 +18165,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
         <v>44958</v>
       </c>
@@ -18185,7 +18189,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40"/>
       <c r="B710" s="20" t="s">
         <v>52</v>
@@ -18209,7 +18213,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
         <v>44986</v>
       </c>
@@ -18229,7 +18233,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40">
         <v>45017</v>
       </c>
@@ -18249,7 +18253,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40">
         <v>45047</v>
       </c>
@@ -18269,7 +18273,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40">
         <v>45078</v>
       </c>
@@ -18295,7 +18299,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40">
         <v>45108</v>
       </c>
@@ -18321,7 +18325,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40">
         <v>45139</v>
       </c>
@@ -18347,7 +18351,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40">
         <v>45170</v>
       </c>
@@ -18367,7 +18371,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40">
         <v>45200</v>
       </c>
@@ -18393,7 +18397,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40"/>
       <c r="B719" s="20" t="s">
         <v>47</v>
@@ -18415,7 +18419,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40">
         <v>45231</v>
       </c>
@@ -18435,7 +18439,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40">
         <v>45261</v>
       </c>
@@ -18461,7 +18465,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="47" t="s">
         <v>427</v>
       </c>
@@ -18479,20 +18483,22 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40">
         <v>45292</v>
       </c>
       <c r="B723" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C723" s="13"/>
+      <c r="C723" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D723" s="39"/>
       <c r="E723" s="9"/>
       <c r="F723" s="20"/>
-      <c r="G723" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G723" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H723" s="39">
         <v>2</v>
@@ -18503,7 +18509,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40"/>
       <c r="B724" s="20" t="s">
         <v>47</v>
@@ -18525,11 +18531,13 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40">
         <v>45323</v>
       </c>
-      <c r="B725" s="20"/>
+      <c r="B725" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C725" s="13"/>
       <c r="D725" s="39"/>
       <c r="E725" s="9"/>
@@ -18538,12 +18546,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H725" s="39"/>
+      <c r="H725" s="39">
+        <v>2</v>
+      </c>
       <c r="I725" s="9"/>
       <c r="J725" s="11"/>
-      <c r="K725" s="20"/>
-    </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K725" s="20" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40">
         <v>45352</v>
       </c>
@@ -18561,7 +18573,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40">
         <v>45383</v>
       </c>
@@ -18579,7 +18591,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40">
         <v>45413</v>
       </c>
@@ -18597,7 +18609,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40">
         <v>45444</v>
       </c>
@@ -18615,7 +18627,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40">
         <v>45474</v>
       </c>
@@ -18633,7 +18645,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40">
         <v>45505</v>
       </c>
@@ -18651,7 +18663,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40">
         <v>45536</v>
       </c>
@@ -18669,7 +18681,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40">
         <v>45566</v>
       </c>
@@ -18687,7 +18699,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40">
         <v>45597</v>
       </c>
@@ -18705,7 +18717,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40">
         <v>45627</v>
       </c>
@@ -18723,7 +18735,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40">
         <v>45658</v>
       </c>
@@ -18741,7 +18753,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40">
         <v>45689</v>
       </c>
@@ -18759,7 +18771,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40">
         <v>45717</v>
       </c>
@@ -18792,10 +18804,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18818,28 +18830,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -18852,7 +18864,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18881,7 +18893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -18905,17 +18917,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18936,7 +18948,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18963,7 +18975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18989,7 +19001,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19015,7 +19027,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19041,7 +19053,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19067,7 +19079,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19093,7 +19105,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19119,7 +19131,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19145,7 +19157,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19165,7 +19177,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19185,7 +19197,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19205,7 +19217,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19226,7 +19238,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19247,7 +19259,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19268,7 +19280,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19289,7 +19301,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19310,7 +19322,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19331,7 +19343,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19352,7 +19364,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19373,7 +19385,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19394,7 +19406,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19415,7 +19427,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19436,7 +19448,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19457,7 +19469,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19478,7 +19490,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19499,7 +19511,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19520,7 +19532,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19541,7 +19553,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19562,7 +19574,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19583,7 +19595,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19604,7 +19616,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19625,7 +19637,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19634,7 +19646,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19643,7 +19655,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19652,7 +19664,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19661,7 +19673,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19670,7 +19682,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19679,7 +19691,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19688,7 +19700,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19697,7 +19709,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19706,7 +19718,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19715,7 +19727,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19724,7 +19736,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19733,7 +19745,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19742,7 +19754,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19751,7 +19763,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19760,7 +19772,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19769,7 +19781,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19778,7 +19790,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19787,7 +19799,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19796,7 +19808,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19805,7 +19817,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19814,7 +19826,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19823,7 +19835,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19832,7 +19844,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19841,7 +19853,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19850,7 +19862,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19859,7 +19871,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19868,7 +19880,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19877,7 +19889,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19886,7 +19898,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
